--- a/invoice_gen/TEMPLATE/MOTO.xlsx
+++ b/invoice_gen/TEMPLATE/MOTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\tools\inv_pkl_contract_creation - Copy\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3405B3-1473-45EA-A88B-3167DFA9500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52843CC-B1FF-44BE-A731-EA6C327D699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Packing list" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Contract!$A$1:$G$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Contract!$A$1:$G$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Packing list'!$A$1:$I$32</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>SALES CONTRACT</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>DAP:</t>
-  </si>
-  <si>
-    <t>BINH DUONG</t>
   </si>
   <si>
     <t>Term of Payment: 100% TT after shipment</t>
@@ -314,6 +311,16 @@
   <si>
     <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO HO CHI MINH CITY, VIETNAM.</t>
   </si>
+  <si>
+    <t>ZHENG YAN YUN</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>CHM</t>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +333,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -606,45 +613,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Book Antiqua"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Book Antiqua"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -700,7 +677,7 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +906,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -944,6 +925,24 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,55 +955,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1290,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
@@ -1302,15 +1271,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14 16384:16384" s="46" customFormat="1" ht="46.15" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="59"/>
       <c r="I1" s="59"/>
       <c r="J1" s="59"/>
@@ -1336,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:14 16384:16384" s="48" customFormat="1" ht="39" customHeight="1">
@@ -1344,10 +1313,10 @@
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="88"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="64" t="str">
         <f>Invoice!G8</f>
         <v>JFINV</v>
@@ -1394,24 +1363,24 @@
     </row>
     <row r="10" spans="1:14 16384:16384" s="49" customFormat="1" ht="45" customHeight="1">
       <c r="A10" s="65"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+    </row>
+    <row r="11" spans="1:14 16384:16384" s="49" customFormat="1" ht="30" customHeight="1">
+      <c r="B11" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-    </row>
-    <row r="11" spans="1:14 16384:16384" s="49" customFormat="1" ht="30" customHeight="1">
-      <c r="B11" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
     </row>
     <row r="12" spans="1:14 16384:16384" s="51" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="67" t="s">
@@ -1461,10 +1430,12 @@
     </row>
     <row r="15" spans="1:14 16384:16384" s="52" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
@@ -1475,10 +1446,12 @@
     </row>
     <row r="16" spans="1:14 16384:16384" s="52" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
       <c r="J16" s="71"/>
@@ -1520,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D19" s="73"/>
       <c r="E19" s="74"/>
@@ -1529,7 +1502,7 @@
     </row>
     <row r="20" spans="1:14 16384:16384" s="53" customFormat="1" ht="28.9" customHeight="1">
       <c r="A20" s="74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
@@ -1540,7 +1513,7 @@
     </row>
     <row r="21" spans="1:14 16384:16384" s="53" customFormat="1" ht="28.9" customHeight="1">
       <c r="A21" s="74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
@@ -1551,7 +1524,7 @@
     </row>
     <row r="22" spans="1:14 16384:16384" s="53" customFormat="1" ht="28.9" customHeight="1">
       <c r="A22" s="74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
@@ -1564,52 +1537,52 @@
     </row>
     <row r="23" spans="1:14 16384:16384" s="53" customFormat="1" ht="62.1" customHeight="1">
       <c r="A23" s="74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
-      <c r="E23" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="E23" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="1:14 16384:16384" s="53" customFormat="1" ht="44.1" customHeight="1">
       <c r="A24" s="74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="74"/>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
-      <c r="E24" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
+      <c r="E24" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="1:14 16384:16384" s="53" customFormat="1" ht="28.9" customHeight="1">
       <c r="A25" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
-      <c r="E25" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
+      <c r="E25" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
     </row>
     <row r="26" spans="1:14 16384:16384" s="53" customFormat="1" ht="28.9" customHeight="1">
       <c r="A26" s="74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="74"/>
       <c r="G26" s="74"/>
@@ -1626,24 +1599,24 @@
     </row>
     <row r="28" spans="1:14 16384:16384" s="48" customFormat="1" ht="28.9" customHeight="1">
       <c r="B28" s="75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:14 16384:16384" s="48" customFormat="1" ht="57" customHeight="1">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="76"/>
-      <c r="E29" s="86" t="s">
+      <c r="E29" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:14 16384:16384" s="54" customFormat="1" ht="39">
       <c r="A30" s="59"/>
@@ -1678,10 +1651,11 @@
       <c r="XFD31" s="59"/>
     </row>
     <row r="32" spans="1:14 16384:16384" s="54" customFormat="1" ht="39">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="A32" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
       <c r="G32" s="59"/>
@@ -3950,7 +3924,9 @@
       <c r="XFD79" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="A29:C29"/>
@@ -3969,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -3989,70 +3965,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
+      <c r="A2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A3" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A5" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+    </row>
+    <row r="6" spans="1:7" ht="69" customHeight="1">
+      <c r="A6" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-    </row>
-    <row r="6" spans="1:7" ht="69" customHeight="1">
-      <c r="A6" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="A7" s="6"/>
@@ -4061,7 +4037,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="12" t="str">
         <f>'Packing list'!I7</f>
@@ -4070,55 +4046,55 @@
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="35"/>
       <c r="F9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1">
       <c r="A10" s="35"/>
       <c r="B10" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="35"/>
       <c r="F10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -4143,7 +4119,7 @@
     </row>
     <row r="14" spans="1:7" ht="25.5" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>10</v>
@@ -4155,50 +4131,50 @@
     </row>
     <row r="15" spans="1:7" ht="25.5" customHeight="1">
       <c r="A15" s="35"/>
-      <c r="B15" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
+      <c r="B15" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:7" ht="25.5" customHeight="1">
       <c r="A16" s="35"/>
-      <c r="B16" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
+      <c r="B16" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1">
       <c r="A17" s="43"/>
-      <c r="B17" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
+      <c r="B17" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="26.1" customHeight="1">
       <c r="A18" s="43"/>
-      <c r="B18" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
+      <c r="B18" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:7" ht="27.75" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -4228,11 +4204,11 @@
       <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1">
-      <c r="A23" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
+      <c r="A23" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="24"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -4240,61 +4216,61 @@
     </row>
     <row r="24" spans="1:7" ht="61.5" customHeight="1">
       <c r="A24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A25" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
+      <c r="A25" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1">
+      <c r="A27" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A27" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="42" customHeight="1">
       <c r="E28" s="35"/>
       <c r="F28" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="24" customHeight="1">
       <c r="E29" s="6"/>
       <c r="F29" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="69.75" customHeight="1">
@@ -4308,7 +4284,7 @@
     <row r="32" spans="1:7" ht="53.1" customHeight="1">
       <c r="E32" s="6"/>
       <c r="F32" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="31"/>
     </row>
@@ -4334,6 +4310,11 @@
     <row r="63" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A6:G6"/>
@@ -4341,11 +4322,6 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J23:J35">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
@@ -4361,8 +4337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -4387,92 +4363,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
+      <c r="A1" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
-      <c r="A2" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
+      <c r="A2" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A4" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
+      <c r="A4" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A5" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
+      <c r="A5" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="54" customHeight="1">
-      <c r="A6" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="A6" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
     </row>
@@ -4485,18 +4461,18 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4504,16 +4480,16 @@
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4521,16 +4497,16 @@
       <c r="F9" s="12"/>
       <c r="G9" s="6"/>
       <c r="H9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4538,17 +4514,17 @@
       <c r="F10" s="12"/>
       <c r="G10" s="6"/>
       <c r="H10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="20.25" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4575,7 +4551,7 @@
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>10</v>
@@ -4590,7 +4566,7 @@
     <row r="14" spans="1:11" ht="25.5" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
@@ -4601,46 +4577,46 @@
     </row>
     <row r="15" spans="1:11" ht="25.5" customHeight="1">
       <c r="A15" s="12"/>
-      <c r="B15" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
+      <c r="B15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="4"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="24" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
+      <c r="B16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="20"/>
       <c r="G16" s="4"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="26.1" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
+      <c r="B17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="20"/>
       <c r="G17" s="4"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="111" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4679,7 +4655,7 @@
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -4687,14 +4663,14 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="36"/>
-      <c r="L22" s="99"/>
+      <c r="L22" s="101"/>
     </row>
     <row r="23" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A23" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
+      <c r="A23" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="6"/>
@@ -4703,16 +4679,16 @@
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="99"/>
+      <c r="L23" s="101"/>
     </row>
     <row r="24" spans="1:12" ht="72" customHeight="1">
       <c r="A24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -4724,11 +4700,11 @@
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" ht="48" customHeight="1">
-      <c r="A25" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
+      <c r="A25" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -4740,40 +4716,40 @@
       <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+    </row>
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A27" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-    </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A27" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
     </row>
     <row r="28" spans="1:12" ht="27" customHeight="1">
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I28" s="5"/>
     </row>
@@ -4791,8 +4767,8 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
     </row>
     <row r="32" spans="1:12" ht="53.1" customHeight="1">
       <c r="F32" s="6"/>
@@ -4823,6 +4799,13 @@
     <row r="63" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:K26"/>
@@ -4830,13 +4813,6 @@
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="N23:N35">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
